--- a/BOM、库房等文件/10.9/物料号完整 BOM分阶.xlsx
+++ b/BOM、库房等文件/10.9/物料号完整 BOM分阶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="466">
   <si>
     <t>无线测温系统</t>
   </si>
@@ -916,9 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>411510500010</t>
-  </si>
-  <si>
     <t>M3绝缘垫片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,10 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>440200300040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>411520800010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1308,14 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>430100100020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440300300010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>430410400020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,18 +1385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>411510500020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411510500010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411520800010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>410720100060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,87 +1489,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>450300200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200200020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450400100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450200100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440100400040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411490100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420310100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411220200010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410210800030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410110100550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610100020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610600010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示待查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示新增待查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410610100050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520500010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520500010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520500010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520500020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430100300010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>430300400020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>450300200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450200200020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450200200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450400100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450200100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440100400030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440100400040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411490100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420310100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411220200010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410210800030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410110100550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410610100020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410610600010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示待查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示新增待查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410610100050</t>
+    <t>430300400030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440200100040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300400010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411520500010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,14 +2606,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="143" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="8" bestFit="1" customWidth="1"/>
@@ -2623,7 +2632,7 @@
         <v>155</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C1" s="124" t="s">
         <v>156</v>
@@ -2699,7 +2708,7 @@
     <row r="4" spans="1:16">
       <c r="A4" s="116"/>
       <c r="B4" s="135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="127" t="s">
         <v>1</v>
@@ -2726,7 +2735,7 @@
     <row r="5" spans="1:16">
       <c r="A5" s="116"/>
       <c r="B5" s="135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>3</v>
@@ -2752,13 +2761,13 @@
       <c r="N5" s="144"/>
       <c r="O5" s="144"/>
       <c r="P5" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="116"/>
       <c r="B6" s="135" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" s="127" t="s">
         <v>4</v>
@@ -2784,13 +2793,13 @@
       <c r="N6" s="145"/>
       <c r="O6" s="145"/>
       <c r="P6" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="116"/>
       <c r="B7" s="135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="127" t="s">
         <v>5</v>
@@ -2818,13 +2827,13 @@
       <c r="N7" s="146"/>
       <c r="O7" s="146"/>
       <c r="P7" s="8" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="116"/>
       <c r="B8" s="135" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="127" t="s">
         <v>6</v>
@@ -2855,7 +2864,7 @@
         <v>264</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
       <c r="C9" s="128" t="s">
         <v>7</v>
@@ -2884,7 +2893,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="116"/>
       <c r="B10" s="135" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C10" s="127" t="s">
         <v>8</v>
@@ -2911,7 +2920,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="116"/>
       <c r="B11" s="135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C11" s="124" t="s">
         <v>149</v>
@@ -2957,7 +2966,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="116"/>
       <c r="B13" s="135" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C13" s="124" t="s">
         <v>9</v>
@@ -2984,7 +2993,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="116"/>
       <c r="B14" s="135" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="124" t="s">
         <v>10</v>
@@ -3013,7 +3022,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="116"/>
       <c r="B15" s="135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="124" t="s">
         <v>12</v>
@@ -3067,7 +3076,7 @@
     <row r="17" spans="1:13">
       <c r="A17" s="116"/>
       <c r="B17" s="135" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" s="124" t="s">
         <v>14</v>
@@ -3094,7 +3103,7 @@
     <row r="18" spans="1:13">
       <c r="A18" s="116"/>
       <c r="B18" s="135" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>15</v>
@@ -3121,7 +3130,7 @@
     <row r="19" spans="1:13">
       <c r="A19" s="116"/>
       <c r="B19" s="137" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" s="124" t="s">
         <v>16</v>
@@ -3148,7 +3157,7 @@
     <row r="20" spans="1:13">
       <c r="A20" s="116"/>
       <c r="B20" s="135" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C20" s="127" t="s">
         <v>92</v>
@@ -3200,17 +3209,17 @@
     <row r="22" spans="1:13">
       <c r="A22" s="116"/>
       <c r="B22" s="135" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C22" s="127" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="19"/>
@@ -3227,17 +3236,17 @@
     <row r="23" spans="1:13">
       <c r="A23" s="116"/>
       <c r="B23" s="135" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="19"/>
@@ -3245,7 +3254,7 @@
         <v>107</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="29"/>
@@ -3254,7 +3263,7 @@
     <row r="24" spans="1:13">
       <c r="A24" s="116"/>
       <c r="B24" s="73" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>108</v>
@@ -3264,7 +3273,7 @@
         <v>95</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="19"/>
@@ -3281,7 +3290,7 @@
     <row r="25" spans="1:13">
       <c r="A25" s="116"/>
       <c r="B25" s="135" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>109</v>
@@ -3291,7 +3300,7 @@
         <v>96</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="19"/>
@@ -3308,7 +3317,7 @@
     <row r="26" spans="1:13">
       <c r="A26" s="116"/>
       <c r="B26" s="135" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C26" s="127" t="s">
         <v>110</v>
@@ -3318,7 +3327,7 @@
         <v>97</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="19"/>
@@ -3335,7 +3344,7 @@
     <row r="27" spans="1:13">
       <c r="A27" s="116"/>
       <c r="B27" s="135" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C27" s="127" t="s">
         <v>111</v>
@@ -3345,7 +3354,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
@@ -3362,7 +3371,7 @@
     <row r="28" spans="1:13">
       <c r="A28" s="116"/>
       <c r="B28" s="135" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>112</v>
@@ -3389,7 +3398,7 @@
     <row r="29" spans="1:13">
       <c r="A29" s="116"/>
       <c r="B29" s="137" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C29" s="127" t="s">
         <v>113</v>
@@ -3399,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="19"/>
@@ -3416,7 +3425,7 @@
     <row r="30" spans="1:13">
       <c r="A30" s="116"/>
       <c r="B30" s="137" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C30" s="127" t="s">
         <v>114</v>
@@ -3426,7 +3435,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="19"/>
@@ -3443,7 +3452,7 @@
     <row r="31" spans="1:13">
       <c r="A31" s="116"/>
       <c r="B31" s="137" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C31" s="127" t="s">
         <v>115</v>
@@ -3468,10 +3477,10 @@
     <row r="32" spans="1:13">
       <c r="A32" s="116"/>
       <c r="B32" s="135" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C32" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="28" t="s">
@@ -3490,7 +3499,7 @@
       <c r="A33" s="114"/>
       <c r="B33" s="12"/>
       <c r="C33" s="125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="30" t="s">
@@ -3508,10 +3517,10 @@
     <row r="34" spans="1:13">
       <c r="A34" s="116"/>
       <c r="B34" s="135" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="28" t="s">
@@ -3535,10 +3544,10 @@
     <row r="35" spans="1:13" s="70" customFormat="1">
       <c r="A35" s="118"/>
       <c r="B35" s="138" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C35" s="129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="37" t="s">
@@ -3557,7 +3566,7 @@
       <c r="A36" s="119"/>
       <c r="B36" s="98"/>
       <c r="C36" s="130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="2" t="s">
@@ -3575,10 +3584,10 @@
     <row r="37" spans="1:13" s="70" customFormat="1">
       <c r="A37" s="118"/>
       <c r="B37" s="138" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C37" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="37" t="s">
@@ -3603,7 +3612,7 @@
       <c r="A38" s="120"/>
       <c r="B38" s="99"/>
       <c r="C38" s="131" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="47" t="s">
@@ -3621,14 +3630,14 @@
     <row r="39" spans="1:13">
       <c r="A39" s="121"/>
       <c r="B39" s="135" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C39" s="132" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>28</v>
@@ -3650,14 +3659,14 @@
     <row r="40" spans="1:13">
       <c r="A40" s="121"/>
       <c r="B40" s="135" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C40" s="132" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F40" s="54" t="s">
         <v>30</v>
@@ -3679,14 +3688,14 @@
     <row r="41" spans="1:13">
       <c r="A41" s="116"/>
       <c r="B41" s="135" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C41" s="127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F41" s="59" t="s">
         <v>203</v>
@@ -3708,10 +3717,10 @@
     <row r="42" spans="1:13">
       <c r="A42" s="116"/>
       <c r="B42" s="135" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="58" t="s">
@@ -3737,10 +3746,10 @@
     <row r="43" spans="1:13" ht="99.75">
       <c r="A43" s="116"/>
       <c r="B43" s="73" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="58" t="s">
@@ -3766,14 +3775,14 @@
     <row r="44" spans="1:13" ht="42.75">
       <c r="A44" s="116"/>
       <c r="B44" s="73" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C44" s="127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F44" s="59" t="s">
         <v>206</v>
@@ -3795,10 +3804,10 @@
     <row r="45" spans="1:13">
       <c r="A45" s="116"/>
       <c r="B45" s="135" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C45" s="127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="58" t="s">
@@ -3824,10 +3833,10 @@
     <row r="46" spans="1:13" ht="28.5">
       <c r="A46" s="116"/>
       <c r="B46" s="139" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C46" s="127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="26" t="s">
@@ -3853,10 +3862,10 @@
     <row r="47" spans="1:13">
       <c r="A47" s="116"/>
       <c r="B47" s="135" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C47" s="127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="58" t="s">
@@ -3882,10 +3891,10 @@
     <row r="48" spans="1:13">
       <c r="A48" s="116"/>
       <c r="B48" s="135" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C48" s="127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="58" t="s">
@@ -3913,10 +3922,10 @@
     <row r="49" spans="1:23">
       <c r="A49" s="116"/>
       <c r="B49" s="135" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="C49" s="127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="61" t="s">
@@ -3940,10 +3949,10 @@
     <row r="50" spans="1:23">
       <c r="A50" s="116"/>
       <c r="B50" s="135" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="C50" s="127" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="58" t="s">
@@ -3971,10 +3980,10 @@
     <row r="51" spans="1:23">
       <c r="A51" s="116"/>
       <c r="B51" s="140" t="s">
-        <v>279</v>
+        <v>458</v>
       </c>
       <c r="C51" s="127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="58" t="s">
@@ -4012,10 +4021,10 @@
     <row r="52" spans="1:23">
       <c r="A52" s="116"/>
       <c r="B52" s="140" t="s">
-        <v>279</v>
+        <v>458</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="58" t="s">
@@ -4053,10 +4062,10 @@
     <row r="53" spans="1:23">
       <c r="A53" s="116"/>
       <c r="B53" s="135" t="s">
-        <v>279</v>
+        <v>458</v>
       </c>
       <c r="C53" s="127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="58" t="s">
@@ -4084,10 +4093,10 @@
     <row r="54" spans="1:23">
       <c r="A54" s="116"/>
       <c r="B54" s="135" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C54" s="127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="58" t="s">
@@ -4113,10 +4122,10 @@
     <row r="55" spans="1:23">
       <c r="A55" s="116"/>
       <c r="B55" s="135" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C55" s="127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="58" t="s">
@@ -4142,10 +4151,10 @@
     <row r="56" spans="1:23">
       <c r="A56" s="116"/>
       <c r="B56" s="137" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C56" s="127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="58" t="s">
@@ -4171,10 +4180,10 @@
     <row r="57" spans="1:23" ht="28.5">
       <c r="A57" s="116"/>
       <c r="B57" s="73" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C57" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="58" t="s">
@@ -4200,10 +4209,10 @@
     <row r="58" spans="1:23" ht="28.5">
       <c r="A58" s="116"/>
       <c r="B58" s="73" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C58" s="127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="58" t="s">
@@ -4229,10 +4238,10 @@
     <row r="59" spans="1:23" ht="28.5">
       <c r="A59" s="116"/>
       <c r="B59" s="73" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C59" s="127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="58" t="s">
@@ -4258,10 +4267,10 @@
     <row r="60" spans="1:23">
       <c r="A60" s="116"/>
       <c r="B60" s="135" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C60" s="127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="58" t="s">
@@ -4287,10 +4296,10 @@
     <row r="61" spans="1:23">
       <c r="A61" s="116"/>
       <c r="B61" s="135" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C61" s="127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="58" t="s">
@@ -4316,10 +4325,10 @@
     <row r="62" spans="1:23">
       <c r="A62" s="116"/>
       <c r="B62" s="135" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C62" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="58" t="s">
@@ -4347,10 +4356,10 @@
     <row r="63" spans="1:23" ht="57">
       <c r="A63" s="116"/>
       <c r="B63" s="73" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C63" s="127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="58" t="s">
@@ -4376,10 +4385,10 @@
     <row r="64" spans="1:23">
       <c r="A64" s="116"/>
       <c r="B64" s="73" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C64" s="127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="58" t="s">
@@ -4405,10 +4414,10 @@
     <row r="65" spans="1:13">
       <c r="A65" s="116"/>
       <c r="B65" s="73" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C65" s="127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="58" t="s">
@@ -4434,10 +4443,10 @@
     <row r="66" spans="1:13">
       <c r="A66" s="116"/>
       <c r="B66" s="73" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C66" s="127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="58" t="s">
@@ -4463,10 +4472,10 @@
     <row r="67" spans="1:13">
       <c r="A67" s="116"/>
       <c r="B67" s="135" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C67" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="58" t="s">
@@ -4494,10 +4503,10 @@
     <row r="68" spans="1:13" ht="28.5">
       <c r="A68" s="116"/>
       <c r="B68" s="135" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="58" t="s">
@@ -4523,17 +4532,17 @@
     <row r="69" spans="1:13">
       <c r="A69" s="116"/>
       <c r="B69" s="139" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C69" s="127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="26" t="s">
         <v>229</v>
       </c>
       <c r="F69" s="110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G69" s="60" t="s">
         <v>63</v>
@@ -4552,10 +4561,10 @@
     <row r="70" spans="1:13">
       <c r="A70" s="116"/>
       <c r="B70" s="135" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="58" t="s">
@@ -4581,10 +4590,10 @@
     <row r="71" spans="1:13">
       <c r="A71" s="116"/>
       <c r="B71" s="135" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C71" s="127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="58" t="s">
@@ -4610,10 +4619,10 @@
     <row r="72" spans="1:13">
       <c r="A72" s="116"/>
       <c r="B72" s="135" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C72" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="58" t="s">
@@ -4639,10 +4648,10 @@
     <row r="73" spans="1:13">
       <c r="A73" s="116"/>
       <c r="B73" s="135" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C73" s="127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="58" t="s">
@@ -4668,10 +4677,10 @@
     <row r="74" spans="1:13">
       <c r="A74" s="116"/>
       <c r="B74" s="135" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C74" s="127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="58" t="s">
@@ -4697,10 +4706,10 @@
     <row r="75" spans="1:13">
       <c r="A75" s="116"/>
       <c r="B75" s="135" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C75" s="127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="58" t="s">
@@ -4726,10 +4735,10 @@
     <row r="76" spans="1:13">
       <c r="A76" s="116"/>
       <c r="B76" s="135" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C76" s="127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="58" t="s">
@@ -4757,14 +4766,14 @@
     <row r="77" spans="1:13">
       <c r="A77" s="116"/>
       <c r="B77" s="135" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C77" s="127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F77" s="59" t="s">
         <v>273</v>
@@ -4786,10 +4795,10 @@
     <row r="78" spans="1:13">
       <c r="A78" s="116"/>
       <c r="B78" s="135" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C78" s="127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="58" t="s">
@@ -4816,7 +4825,7 @@
       <c r="A79" s="119"/>
       <c r="B79" s="98"/>
       <c r="C79" s="130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="68" t="s">
@@ -4834,10 +4843,10 @@
     <row r="80" spans="1:13" s="70" customFormat="1">
       <c r="A80" s="113"/>
       <c r="B80" s="135" t="s">
-        <v>279</v>
+        <v>456</v>
       </c>
       <c r="C80" s="127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="69" t="s">
@@ -4865,10 +4874,10 @@
     <row r="81" spans="1:13" ht="28.5">
       <c r="A81" s="113"/>
       <c r="B81" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C81" s="127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="69" t="s">
@@ -4894,10 +4903,10 @@
     <row r="82" spans="1:13">
       <c r="A82" s="113"/>
       <c r="B82" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C82" s="127" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" s="19"/>
       <c r="E82" s="69" t="s">
@@ -4925,10 +4934,10 @@
     <row r="83" spans="1:13">
       <c r="A83" s="113"/>
       <c r="B83" s="135" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C83" s="127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="3" t="s">
@@ -4977,14 +4986,14 @@
     <row r="85" spans="1:13" s="70" customFormat="1">
       <c r="A85" s="116"/>
       <c r="B85" s="135" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="C85" s="127" t="s">
         <v>130</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F85" s="73" t="s">
         <v>138</v>
@@ -5004,14 +5013,14 @@
     <row r="86" spans="1:13" s="70" customFormat="1">
       <c r="A86" s="116"/>
       <c r="B86" s="135" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C86" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F86" s="73" t="s">
         <v>138</v>
@@ -5031,7 +5040,7 @@
     <row r="87" spans="1:13" s="70" customFormat="1">
       <c r="A87" s="116"/>
       <c r="B87" s="73" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C87" s="127" t="s">
         <v>132</v>
@@ -5058,7 +5067,7 @@
     <row r="88" spans="1:13" s="70" customFormat="1">
       <c r="A88" s="116"/>
       <c r="B88" s="135" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C88" s="127" t="s">
         <v>133</v>
@@ -5085,7 +5094,7 @@
     <row r="89" spans="1:13" s="70" customFormat="1">
       <c r="A89" s="116"/>
       <c r="B89" s="135" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C89" s="127" t="s">
         <v>134</v>
@@ -5112,7 +5121,7 @@
     <row r="90" spans="1:13" s="70" customFormat="1">
       <c r="A90" s="116"/>
       <c r="B90" s="135" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C90" s="127" t="s">
         <v>135</v>
@@ -5137,7 +5146,7 @@
     <row r="91" spans="1:13" s="70" customFormat="1">
       <c r="A91" s="116"/>
       <c r="B91" s="137" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C91" s="127" t="s">
         <v>136</v>
@@ -5164,7 +5173,7 @@
     <row r="92" spans="1:13" s="70" customFormat="1">
       <c r="A92" s="116"/>
       <c r="B92" s="137" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C92" s="127" t="s">
         <v>137</v>
@@ -5191,10 +5200,10 @@
     <row r="93" spans="1:13" s="70" customFormat="1">
       <c r="A93" s="116"/>
       <c r="B93" s="137" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C93" s="127" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="72" t="s">
@@ -5219,7 +5228,7 @@
       <c r="A94" s="114"/>
       <c r="B94" s="12"/>
       <c r="C94" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="71" t="s">
@@ -5246,7 +5255,7 @@
       <c r="A95" s="122"/>
       <c r="B95" s="112"/>
       <c r="C95" s="133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D95" s="74"/>
       <c r="E95" s="75" t="s">
@@ -5268,10 +5277,10 @@
     <row r="96" spans="1:13" s="79" customFormat="1">
       <c r="A96" s="123"/>
       <c r="B96" s="81" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C96" s="134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D96" s="80"/>
       <c r="E96" s="72" t="s">
@@ -5295,10 +5304,10 @@
     <row r="97" spans="1:13" s="79" customFormat="1">
       <c r="A97" s="116"/>
       <c r="B97" s="141" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C97" s="134" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="72" t="s">
@@ -5322,10 +5331,10 @@
     <row r="98" spans="1:13" s="79" customFormat="1">
       <c r="A98" s="116"/>
       <c r="B98" s="141" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C98" s="134" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="72" t="s">
@@ -5350,7 +5359,7 @@
       <c r="A99" s="119"/>
       <c r="B99" s="98"/>
       <c r="C99" s="130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D99" s="42"/>
       <c r="E99" s="68" t="s">
@@ -5368,10 +5377,10 @@
     <row r="100" spans="1:13">
       <c r="A100" s="116"/>
       <c r="B100" s="135" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="C100" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="84" t="s">
@@ -5399,10 +5408,10 @@
     <row r="101" spans="1:13" ht="28.5">
       <c r="A101" s="113"/>
       <c r="B101" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C101" s="127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="84" t="s">
@@ -5428,10 +5437,10 @@
     <row r="102" spans="1:13">
       <c r="A102" s="113"/>
       <c r="B102" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C102" s="127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="84" t="s">
@@ -5459,17 +5468,17 @@
     <row r="103" spans="1:13">
       <c r="A103" s="113"/>
       <c r="B103" s="6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C103" s="127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="85" t="s">
         <v>240</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>33</v>
@@ -5491,7 +5500,7 @@
       <c r="A104" s="119"/>
       <c r="B104" s="98"/>
       <c r="C104" s="130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="68" t="s">
@@ -5509,10 +5518,10 @@
     <row r="105" spans="1:13" s="70" customFormat="1">
       <c r="A105" s="116"/>
       <c r="B105" s="137" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C105" s="127" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="86" t="s">
@@ -5541,7 +5550,7 @@
       <c r="A106" s="120"/>
       <c r="B106" s="99"/>
       <c r="C106" s="131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D106" s="46"/>
       <c r="E106" s="89" t="s">
@@ -5559,14 +5568,14 @@
     <row r="107" spans="1:13" ht="28.5">
       <c r="A107" s="113"/>
       <c r="B107" s="135" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C107" s="127" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F107" s="87" t="s">
         <v>80</v>
@@ -5590,10 +5599,10 @@
     <row r="108" spans="1:13">
       <c r="A108" s="113"/>
       <c r="B108" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C108" s="127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="86" t="s">
@@ -5621,10 +5630,10 @@
     <row r="109" spans="1:13">
       <c r="A109" s="113"/>
       <c r="B109" s="135" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="C109" s="127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="86" t="s">
@@ -5652,10 +5661,10 @@
     <row r="110" spans="1:13">
       <c r="A110" s="113"/>
       <c r="B110" s="6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C110" s="127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="86" t="s">
@@ -5681,10 +5690,10 @@
     <row r="111" spans="1:13" ht="28.5">
       <c r="A111" s="113"/>
       <c r="B111" s="135" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C111" s="127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="86" t="s">
@@ -5710,10 +5719,10 @@
     <row r="112" spans="1:13" ht="28.5">
       <c r="A112" s="113"/>
       <c r="B112" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C112" s="127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="86" t="s">
@@ -5739,10 +5748,10 @@
     <row r="113" spans="1:14">
       <c r="A113" s="113"/>
       <c r="B113" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C113" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="86" t="s">
@@ -5768,10 +5777,10 @@
     <row r="114" spans="1:14">
       <c r="A114" s="113"/>
       <c r="B114" s="6" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C114" s="127" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="86" t="s">
@@ -5796,10 +5805,10 @@
     <row r="115" spans="1:14">
       <c r="A115" s="113"/>
       <c r="B115" s="6" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C115" s="127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="86" t="s">
